--- a/OW_3/dane/dane_ciagle.xlsx
+++ b/OW_3/dane/dane_ciagle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\szyme\Documents\Studia\IX Semestr\Optymalizacja wielokryterialna\OW_SS_KK_LS\OW_3\dane\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28FC216C-7FA2-4F7D-9900-D98C222FEF79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6C54A5-E28A-4F8F-9B35-5930153B482B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1330" yWindow="310" windowWidth="15820" windowHeight="10310" activeTab="1" xr2:uid="{9B107431-DD2D-4CB0-BCEF-8517D3EDAD04}"/>
+    <workbookView xWindow="1670" yWindow="650" windowWidth="15820" windowHeight="10310" xr2:uid="{9B107431-DD2D-4CB0-BCEF-8517D3EDAD04}"/>
   </bookViews>
   <sheets>
     <sheet name="Alternatywy" sheetId="1" r:id="rId1"/>
@@ -471,8 +471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A217E1F3-047E-4767-92CD-69FBC8344F69}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -534,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA20967-939F-4541-8140-12E467ED3D39}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
